--- a/EY jobs.xlsx
+++ b/EY jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salhi\Documents\GitHub\EY-internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462D0047-CD58-4F48-B630-02DCBA18041E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E375B95E-B21B-44C9-9AA1-352B072F11E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{443F9897-2732-4FF9-AC20-BF2F984494EA}"/>
   </bookViews>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE132BE9-17B9-4817-993C-92C7CABDCD84}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
